--- a/annual rebalance/Output/Stock_stat.xlsx
+++ b/annual rebalance/Output/Stock_stat.xlsx
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0004516183339868747</v>
+        <v>-0.0004516183339868739</v>
       </c>
       <c r="C9" t="n">
         <v>0.01015256859468632</v>
@@ -711,16 +711,16 @@
         <v>0.4271198493254422</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.000603714424632243</v>
+        <v>-0.0006037144246322422</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4154509024638534</v>
+        <v>0.415450902463854</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6927149238863525</v>
+        <v>0.6927149238863527</v>
       </c>
       <c r="I9" t="n">
-        <v>1.657215733984187e-12</v>
+        <v>1.657215733984151e-12</v>
       </c>
     </row>
     <row r="10">
@@ -1319,22 +1319,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.001432842944142543</v>
+        <v>0.001432842944142542</v>
       </c>
       <c r="C29" t="n">
         <v>0.006875063425971477</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.7071130383538947</v>
+        <v>-0.7071130383538945</v>
       </c>
       <c r="E29" t="n">
         <v>-0.7749603320392184</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001339516472347575</v>
+        <v>0.001339516472347574</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01141542059062279</v>
+        <v>0.01141542059062288</v>
       </c>
       <c r="H29" t="n">
         <v>0.4250512917966394</v>
@@ -1554,10 +1554,10 @@
         <v>0.02012523391816356</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5807777448795256</v>
+        <v>0.5807777448795258</v>
       </c>
       <c r="I36" t="n">
-        <v>4.896212837919831e-07</v>
+        <v>4.896212837919797e-07</v>
       </c>
     </row>
     <row r="37">
@@ -1880,7 +1880,7 @@
         <v>0.00267215243990455</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01876767421868576</v>
+        <v>0.01876767421868575</v>
       </c>
       <c r="D47" t="n">
         <v>-0.6974088214982422</v>
@@ -1892,13 +1892,13 @@
         <v>0.002450141418561917</v>
       </c>
       <c r="G47" t="n">
-        <v>0.101681416305637</v>
+        <v>0.1016814163056371</v>
       </c>
       <c r="H47" t="n">
         <v>1.011139386283598</v>
       </c>
       <c r="I47" t="n">
-        <v>8.469606910696673e-08</v>
+        <v>8.469606910696783e-08</v>
       </c>
     </row>
     <row r="48">
